--- a/hf_statistics.xlsx
+++ b/hf_statistics.xlsx
@@ -205,10 +205,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +596,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,26 +611,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -847,10 +847,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -902,12 +902,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
